--- a/01_Acquifer Pumping Test/02_기사용관정/ss_out.xlsx
+++ b/01_Acquifer Pumping Test/02_기사용관정/ss_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7036FF-0031-4423-A393-FEF8351A30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7274E35-8006-4926-BC5C-3EF1BA495CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="705" windowWidth="30990" windowHeight="20100" xr2:uid="{1DF6DB75-1BC3-4206-A324-43E9659F5701}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9899A7C7-F75F-45DD-91E9-CC4942759A76}"/>
   </bookViews>
   <sheets>
     <sheet name="ss_out" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="SUM_AA" localSheetId="0">#REF!</definedName>
     <definedName name="SUM_II" localSheetId="0">#REF!</definedName>
     <definedName name="SUM_SS" localSheetId="0">#REF!</definedName>
-    <definedName name="SUM_SS_IN">[1]ss!$F$39</definedName>
+    <definedName name="SUM_SS_IN">[1]ss!$F$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="107">
   <si>
     <t>gong</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -290,6 +290,96 @@
   </si>
   <si>
     <t>합곡리 798-4</t>
+  </si>
+  <si>
+    <t>S-34</t>
+  </si>
+  <si>
+    <t>S-35</t>
+  </si>
+  <si>
+    <t>S-36</t>
+  </si>
+  <si>
+    <t>S-37</t>
+  </si>
+  <si>
+    <t>S-38</t>
+  </si>
+  <si>
+    <t>S-39</t>
+  </si>
+  <si>
+    <t>S-40</t>
+  </si>
+  <si>
+    <t>S-41</t>
+  </si>
+  <si>
+    <t>S-42</t>
+  </si>
+  <si>
+    <t>S-43</t>
+  </si>
+  <si>
+    <t>S-44</t>
+  </si>
+  <si>
+    <t>S-45</t>
+  </si>
+  <si>
+    <t>S-46</t>
+  </si>
+  <si>
+    <t>S-47</t>
+  </si>
+  <si>
+    <t>S-48</t>
+  </si>
+  <si>
+    <t>S-49</t>
+  </si>
+  <si>
+    <t>S-50</t>
+  </si>
+  <si>
+    <t>S-51</t>
+  </si>
+  <si>
+    <t>S-52</t>
+  </si>
+  <si>
+    <t>S-53</t>
+  </si>
+  <si>
+    <t>S-54</t>
+  </si>
+  <si>
+    <t>S-55</t>
+  </si>
+  <si>
+    <t>S-56</t>
+  </si>
+  <si>
+    <t>S-57</t>
+  </si>
+  <si>
+    <t>S-58</t>
+  </si>
+  <si>
+    <t>S-59</t>
+  </si>
+  <si>
+    <t>S-60</t>
+  </si>
+  <si>
+    <t>S-61</t>
+  </si>
+  <si>
+    <t>S-62</t>
+  </si>
+  <si>
+    <t>S-63</t>
   </si>
 </sst>
 </file>
@@ -607,9 +697,159 @@
             <v>O</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="S35" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="S36" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="S37" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="S38" t="str">
+            <v>O</v>
+          </cell>
+        </row>
         <row r="39">
-          <cell r="F39">
-            <v>18.359999999999996</v>
+          <cell r="S39" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="S41" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="S43" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="S44" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="S45" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="S46" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="S47" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="S48" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="S49" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="S50" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="S51" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="S52" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="S53" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="S54" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="S55" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="S56" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="S58" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="S60" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="S61" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="S62" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="S63" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="S64" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>503.7600000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1059,13 +1299,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B477B92-9773-4145-9436-95BC2B18BF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F3937F-3D46-42A2-A93B-ABF99DE8FAA9}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1866,7 +2108,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3">
         <v>50</v>
@@ -1962,204 +2204,954 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3">
+        <v>50</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>20</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3">
+        <v>50</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6.68</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7.68</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3">
+        <v>50</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8.68</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3">
+        <v>20</v>
+      </c>
+      <c r="D43" s="3">
+        <v>50</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>9.68</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10.68</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>11.68</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>12.68</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3">
+        <v>50</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>13.68</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="3">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>14.68</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="3">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>50</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15.68</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="3">
+        <v>20</v>
+      </c>
+      <c r="D50" s="3">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="3">
+        <v>16.68</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="3">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3">
+        <v>50</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F51" s="3">
+        <v>17.68</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3">
+        <v>20</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="3">
+        <v>20</v>
+      </c>
+      <c r="D53" s="3">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>19.68</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="3">
+        <v>20</v>
+      </c>
+      <c r="D54" s="3">
+        <v>50</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F54" s="3">
+        <v>20.68</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="3">
+        <v>30</v>
+      </c>
+      <c r="D55" s="3">
+        <v>50</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="3">
+        <v>21.68</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="3">
+        <v>20</v>
+      </c>
+      <c r="D56" s="3">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>22.68</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="3">
+        <v>25</v>
+      </c>
+      <c r="D57" s="3">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>23.68</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="3">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3">
+        <v>50</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>24.68</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3">
+        <v>20</v>
+      </c>
+      <c r="D59" s="3">
+        <v>50</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>25.68</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="3">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3">
+        <v>50</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>26.68</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="3">
+        <v>20</v>
+      </c>
+      <c r="D61" s="3">
+        <v>50</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F61" s="3">
+        <v>27.68</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="3">
+        <v>30</v>
+      </c>
+      <c r="D62" s="3">
+        <v>50</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>28.68</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="3">
+        <v>20</v>
+      </c>
+      <c r="D63" s="3">
+        <v>50</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F63" s="3">
+        <v>29.68</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="3">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="3">
+        <v>30.68</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
